--- a/dados_brutos/australia_retail.xlsx
+++ b/dados_brutos/australia_retail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JacyzinGuilherme(Bip\mentoria-bip\dados_brutos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0445CE-C25F-4595-BB54-FE8D08A9F468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5C2A97-4990-4F78-A06C-F1D74EB48168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,7 +274,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -337,8 +337,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28738,9 +28738,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28882,19 +28885,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65B05F03-8526-4351-9005-1BA94162993D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CC099CD-AD38-4112-B145-6B6EC305B016}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28918,9 +28917,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CC099CD-AD38-4112-B145-6B6EC305B016}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65B05F03-8526-4351-9005-1BA94162993D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>